--- a/app/tables/tabla_lagrange.xlsx
+++ b/app/tables/tabla_lagrange.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(2*x)/3 - x^2/48 + 67/16</t>
+          <t>(29*x)/4 - (9*x^2)/8 - 3</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_lagrange.xlsx
+++ b/app/tables/tabla_lagrange.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(29*x)/4 - (9*x^2)/8 - 3</t>
+          <t>(751*x)/24 - (45*x^2)/4 + (29*x^3)/24 - 69/4</t>
         </is>
       </c>
     </row>
